--- a/backend/cypress/fixtures/test_workbooks/corrective-action-plan-workbook.xlsx
+++ b/backend/cypress/fixtures/test_workbooks/corrective-action-plan-workbook.xlsx
@@ -42,7 +42,7 @@
     <t xml:space="preserve">Version</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1.4</t>
+    <t xml:space="preserve">1.1.5</t>
   </si>
   <si>
     <t xml:space="preserve">Section</t>
@@ -463,7 +463,7 @@
   <dimension ref="A1:C1003"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/backend/cypress/fixtures/test_workbooks/corrective-action-plan-workbook.xlsx
+++ b/backend/cypress/fixtures/test_workbooks/corrective-action-plan-workbook.xlsx
@@ -42,7 +42,7 @@
     <t xml:space="preserve">Version</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1.5</t>
+    <t xml:space="preserve">1.1.6</t>
   </si>
   <si>
     <t xml:space="preserve">Section</t>
@@ -395,7 +395,7 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -462,8 +462,8 @@
   </sheetPr>
   <dimension ref="A1:C1003"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
